--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
   <si>
     <t>Doi</t>
   </si>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,    Wenzhong%Yang%NULL%1,    Xiaoxue%Wu%NULL%1,    Tianzhu%Zhang%NULL%1,    Yaoyao%Zhao%NULL%1,    Wei%Ren%ren33107@163.com%1,    Jianbo%Xia%xjb915@126.com%2,    Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,     Rana%Magdi%NULL%1,     Nader%Hindi%NULL%1,     Mohamed%Elshebiny%NULL%1,     Nourhan%Farrag%NULL%1,     Shahd%Mahdy%NULL%1,     Mohamed%Sabbour%NULL%1,     Sara%Gebril%NULL%1,     Mohamed%Nasser%NULL%1,     Menna%Kamel%NULL%1,     Abdelrahman%Amir%NULL%1,     Moataz%Maher Emara%NULL%1,     Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,     Lefei%Han%NULL%1,     Min%Peng%2658706528@qq.com%1,     Yuxia%Lv%NULL%1,     Yin%Ouyang%NULL%1,     Kui%Liu%NULL%0,     Linli%Yue%NULL%1,     Qiannan%Li%NULL%1,     Guoqiang%Sun%NULL%1,     Lin%Chen%NULL%1,     Lin%Yang%l.yang@polyu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,     M. M.%Gil%NULL%1,     Z.%Rong%NULL%2,     Z.%Rong%NULL%0,     Y.%Zhang%NULL%1,     H.%Yang%liona.poon@cuhk.edu.hk%1,     L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,     Wenzhong%Yang%NULL%1,     Xiaoxue%Wu%NULL%1,     Tianzhu%Zhang%NULL%1,     Yaoyao%Zhao%NULL%1,     Wei%Ren%ren33107@163.com%1,     Jianbo%Xia%xjb915@126.com%2,     Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -548,6 +569,9 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -563,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -573,6 +597,9 @@
       </c>
       <c r="H2" t="s">
         <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +616,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -599,6 +626,9 @@
       </c>
       <c r="H3" t="s">
         <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -615,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -625,6 +655,9 @@
       </c>
       <c r="H4" t="s">
         <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +674,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -651,6 +684,9 @@
       </c>
       <c r="H5" t="s">
         <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="69">
   <si>
     <t>Doi</t>
   </si>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,      Rana%Magdi%NULL%1,      Nader%Hindi%NULL%1,      Mohamed%Elshebiny%NULL%1,      Nourhan%Farrag%NULL%1,      Shahd%Mahdy%NULL%1,      Mohamed%Sabbour%NULL%1,      Sara%Gebril%NULL%1,      Mohamed%Nasser%NULL%1,      Menna%Kamel%NULL%1,      Abdelrahman%Amir%NULL%1,      Moataz%Maher Emara%NULL%1,      Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,      Lefei%Han%NULL%0,      Min%Peng%2658706528@qq.com%0,      Yuxia%Lv%NULL%0,      Yin%Ouyang%NULL%0,      Kui%Liu%NULL%0,      Linli%Yue%NULL%0,      Qiannan%Li%NULL%0,      Guoqiang%Sun%NULL%0,      Lin%Chen%NULL%0,      Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,      M. M.%Gil%NULL%1,      Z.%Rong%NULL%2,      Z.%Rong%NULL%0,      Y.%Zhang%NULL%1,      H.%Yang%liona.poon@cuhk.edu.hk%1,      L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,      Wenzhong%Yang%NULL%1,      Xiaoxue%Wu%NULL%1,      Tianzhu%Zhang%NULL%1,      Yaoyao%Zhao%NULL%1,      Wei%Ren%ren33107@163.com%1,      Jianbo%Xia%xjb915@126.com%2,      Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,       Rana%Magdi%NULL%1,       Nader%Hindi%NULL%1,       Mohamed%Elshebiny%NULL%1,       Nourhan%Farrag%NULL%1,       Shahd%Mahdy%NULL%1,       Mohamed%Sabbour%NULL%1,       Sara%Gebril%NULL%1,       Mohamed%Nasser%NULL%1,       Menna%Kamel%NULL%1,       Abdelrahman%Amir%NULL%1,       Moataz%Maher Emara%NULL%1,       Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,       Lefei%Han%NULL%0,       Min%Peng%2658706528@qq.com%0,       Yuxia%Lv%NULL%0,       Yin%Ouyang%NULL%0,       Kui%Liu%NULL%0,       Linli%Yue%NULL%0,       Qiannan%Li%NULL%0,       Guoqiang%Sun%NULL%0,       Lin%Chen%NULL%0,       Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,       M. M.%Gil%NULL%1,       Z.%Rong%NULL%2,       Z.%Rong%NULL%0,       Y.%Zhang%NULL%1,       H.%Yang%liona.poon@cuhk.edu.hk%1,       L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,       Wenzhong%Yang%NULL%1,       Xiaoxue%Wu%NULL%1,       Tianzhu%Zhang%NULL%1,       Yaoyao%Zhao%NULL%1,       Wei%Ren%ren33107@163.com%1,       Jianbo%Xia%xjb915@126.com%2,       Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,        Rana%Magdi%NULL%1,        Nader%Hindi%NULL%1,        Mohamed%Elshebiny%NULL%1,        Nourhan%Farrag%NULL%1,        Shahd%Mahdy%NULL%1,        Mohamed%Sabbour%NULL%1,        Sara%Gebril%NULL%1,        Mohamed%Nasser%NULL%1,        Menna%Kamel%NULL%1,        Abdelrahman%Amir%NULL%1,        Moataz%Maher Emara%NULL%1,        Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,        Lefei%Han%NULL%0,        Min%Peng%2658706528@qq.com%0,        Yuxia%Lv%NULL%0,        Yin%Ouyang%NULL%0,        Kui%Liu%NULL%0,        Linli%Yue%NULL%0,        Qiannan%Li%NULL%0,        Guoqiang%Sun%NULL%0,        Lin%Chen%NULL%0,        Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,        M. M.%Gil%NULL%1,        Z.%Rong%NULL%2,        Z.%Rong%NULL%0,        Y.%Zhang%NULL%1,        H.%Yang%liona.poon@cuhk.edu.hk%1,        L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,        Wenzhong%Yang%NULL%1,        Xiaoxue%Wu%NULL%1,        Tianzhu%Zhang%NULL%1,        Yaoyao%Zhao%NULL%1,        Wei%Ren%ren33107@163.com%1,        Jianbo%Xia%xjb915@126.com%2,        Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -587,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -616,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -645,7 +681,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -674,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="77">
   <si>
     <t>Doi</t>
   </si>
@@ -288,6 +288,30 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,        Wenzhong%Yang%NULL%1,        Xiaoxue%Wu%NULL%1,        Tianzhu%Zhang%NULL%1,        Yaoyao%Zhao%NULL%1,        Wei%Ren%ren33107@163.com%1,        Jianbo%Xia%xjb915@126.com%2,        Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,         Rana%Magdi%NULL%1,         Nader%Hindi%NULL%1,         Mohamed%Elshebiny%NULL%1,         Nourhan%Farrag%NULL%1,         Shahd%Mahdy%NULL%1,         Mohamed%Sabbour%NULL%1,         Sara%Gebril%NULL%1,         Mohamed%Nasser%NULL%1,         Menna%Kamel%NULL%1,         Abdelrahman%Amir%NULL%1,         Moataz%Maher Emara%NULL%1,         Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,         Lefei%Han%NULL%0,         Min%Peng%2658706528@qq.com%0,         Yuxia%Lv%NULL%0,         Yin%Ouyang%NULL%0,         Kui%Liu%NULL%0,         Linli%Yue%NULL%0,         Qiannan%Li%NULL%0,         Guoqiang%Sun%NULL%0,         Lin%Chen%NULL%0,         Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,         M. M.%Gil%NULL%1,         Z.%Rong%NULL%2,         Z.%Rong%NULL%0,         Y.%Zhang%NULL%1,         H.%Yang%liona.poon@cuhk.edu.hk%1,         L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,         Wenzhong%Yang%NULL%1,         Xiaoxue%Wu%NULL%1,         Tianzhu%Zhang%NULL%1,         Yaoyao%Zhao%NULL%1,         Wei%Ren%ren33107@163.com%1,         Jianbo%Xia%xjb915@126.com%2,         Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,          Rana%Magdi%NULL%1,          Nader%Hindi%NULL%1,          Mohamed%Elshebiny%NULL%1,          Nourhan%Farrag%NULL%1,          Shahd%Mahdy%NULL%1,          Mohamed%Sabbour%NULL%1,          Sara%Gebril%NULL%1,          Mohamed%Nasser%NULL%1,          Menna%Kamel%NULL%1,          Abdelrahman%Amir%NULL%1,          Moataz%Maher Emara%NULL%1,          Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,          Lefei%Han%NULL%0,          Min%Peng%2658706528@qq.com%0,          Yuxia%Lv%NULL%0,          Yin%Ouyang%NULL%0,          Kui%Liu%NULL%0,          Linli%Yue%NULL%0,          Qiannan%Li%NULL%0,          Guoqiang%Sun%NULL%0,          Lin%Chen%NULL%0,          Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,          M. M.%Gil%NULL%1,          Z.%Rong%NULL%2,          Z.%Rong%NULL%0,          Y.%Zhang%NULL%1,          H.%Yang%liona.poon@cuhk.edu.hk%1,          L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,          Wenzhong%Yang%NULL%1,          Xiaoxue%Wu%NULL%1,          Tianzhu%Zhang%NULL%1,          Yaoyao%Zhao%NULL%1,          Wei%Ren%ren33107@163.com%1,          Jianbo%Xia%xjb915@126.com%2,          Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -652,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -681,7 +705,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -710,7 +734,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="85">
   <si>
     <t>Doi</t>
   </si>
@@ -312,6 +312,30 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,          Wenzhong%Yang%NULL%1,          Xiaoxue%Wu%NULL%1,          Tianzhu%Zhang%NULL%1,          Yaoyao%Zhao%NULL%1,          Wei%Ren%ren33107@163.com%1,          Jianbo%Xia%xjb915@126.com%2,          Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,           Rana%Magdi%NULL%1,           Nader%Hindi%NULL%1,           Mohamed%Elshebiny%NULL%1,           Nourhan%Farrag%NULL%1,           Shahd%Mahdy%NULL%1,           Mohamed%Sabbour%NULL%1,           Sara%Gebril%NULL%1,           Mohamed%Nasser%NULL%1,           Menna%Kamel%NULL%1,           Abdelrahman%Amir%NULL%1,           Moataz%Maher Emara%NULL%1,           Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,           Lefei%Han%NULL%0,           Min%Peng%2658706528@qq.com%0,           Yuxia%Lv%NULL%0,           Yin%Ouyang%NULL%0,           Kui%Liu%NULL%0,           Linli%Yue%NULL%0,           Qiannan%Li%NULL%0,           Guoqiang%Sun%NULL%0,           Lin%Chen%NULL%0,           Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,           M. M.%Gil%NULL%1,           Z.%Rong%NULL%2,           Z.%Rong%NULL%0,           Y.%Zhang%NULL%1,           H.%Yang%liona.poon@cuhk.edu.hk%1,           L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,           Wenzhong%Yang%NULL%1,           Xiaoxue%Wu%NULL%1,           Tianzhu%Zhang%NULL%1,           Yaoyao%Zhao%NULL%1,           Wei%Ren%ren33107@163.com%1,           Jianbo%Xia%xjb915@126.com%2,           Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,            Rana%Magdi%NULL%1,            Nader%Hindi%NULL%1,            Mohamed%Elshebiny%NULL%1,            Nourhan%Farrag%NULL%1,            Shahd%Mahdy%NULL%1,            Mohamed%Sabbour%NULL%1,            Sara%Gebril%NULL%1,            Mohamed%Nasser%NULL%1,            Menna%Kamel%NULL%1,            Abdelrahman%Amir%NULL%1,            Moataz%Maher Emara%NULL%1,            Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,            Lefei%Han%NULL%0,            Min%Peng%2658706528@qq.com%0,            Yuxia%Lv%NULL%0,            Yin%Ouyang%NULL%0,            Kui%Liu%NULL%0,            Linli%Yue%NULL%0,            Qiannan%Li%NULL%0,            Guoqiang%Sun%NULL%0,            Lin%Chen%NULL%0,            Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,            M. M.%Gil%NULL%1,            Z.%Rong%NULL%2,            Z.%Rong%NULL%0,            Y.%Zhang%NULL%1,            H.%Yang%liona.poon@cuhk.edu.hk%1,            L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,            Wenzhong%Yang%NULL%1,            Xiaoxue%Wu%NULL%1,            Tianzhu%Zhang%NULL%1,            Yaoyao%Zhao%NULL%1,            Wei%Ren%ren33107@163.com%1,            Jianbo%Xia%xjb915@126.com%2,            Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -647,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -676,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -705,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -734,7 +758,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,            Wenzhong%Yang%NULL%1,            Xiaoxue%Wu%NULL%1,            Tianzhu%Zhang%NULL%1,            Yaoyao%Zhao%NULL%1,            Wei%Ren%ren33107@163.com%1,            Jianbo%Xia%xjb915@126.com%2,            Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,             Rana%Magdi%NULL%1,             Nader%Hindi%NULL%1,             Mohamed%Elshebiny%NULL%1,             Nourhan%Farrag%NULL%1,             Shahd%Mahdy%NULL%1,             Mohamed%Sabbour%NULL%1,             Sara%Gebril%NULL%1,             Mohamed%Nasser%NULL%1,             Menna%Kamel%NULL%1,             Abdelrahman%Amir%NULL%1,             Moataz%Maher Emara%NULL%1,             Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,             Lefei%Han%NULL%0,             Min%Peng%2658706528@qq.com%0,             Yuxia%Lv%NULL%0,             Yin%Ouyang%NULL%0,             Kui%Liu%NULL%0,             Linli%Yue%NULL%0,             Qiannan%Li%NULL%0,             Guoqiang%Sun%NULL%0,             Lin%Chen%NULL%0,             Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,             M. M.%Gil%NULL%1,             Z.%Rong%NULL%2,             Z.%Rong%NULL%0,             Y.%Zhang%NULL%1,             H.%Yang%liona.poon@cuhk.edu.hk%1,             L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,             Wenzhong%Yang%NULL%1,             Xiaoxue%Wu%NULL%1,             Tianzhu%Zhang%NULL%1,             Yaoyao%Zhao%NULL%1,             Wei%Ren%ren33107@163.com%1,             Jianbo%Xia%xjb915@126.com%2,             Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,              Rana%Magdi%NULL%1,              Nader%Hindi%NULL%1,              Mohamed%Elshebiny%NULL%1,              Nourhan%Farrag%NULL%1,              Shahd%Mahdy%NULL%1,              Mohamed%Sabbour%NULL%1,              Sara%Gebril%NULL%1,              Mohamed%Nasser%NULL%1,              Menna%Kamel%NULL%1,              Abdelrahman%Amir%NULL%1,              Moataz%Maher Emara%NULL%1,              Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,              Lefei%Han%NULL%0,              Min%Peng%2658706528@qq.com%0,              Yuxia%Lv%NULL%0,              Yin%Ouyang%NULL%0,              Kui%Liu%NULL%0,              Linli%Yue%NULL%0,              Qiannan%Li%NULL%0,              Guoqiang%Sun%NULL%0,              Lin%Chen%NULL%0,              Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,              M. M.%Gil%NULL%1,              Z.%Rong%NULL%2,              Z.%Rong%NULL%0,              Y.%Zhang%NULL%1,              H.%Yang%liona.poon@cuhk.edu.hk%1,              L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,              Wenzhong%Yang%NULL%1,              Xiaoxue%Wu%NULL%1,              Tianzhu%Zhang%NULL%1,              Yaoyao%Zhao%NULL%1,              Wei%Ren%ren33107@163.com%1,              Jianbo%Xia%xjb915@126.com%2,              Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -671,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -700,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -729,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -758,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="97">
   <si>
     <t>Doi</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,              Wenzhong%Yang%NULL%1,              Xiaoxue%Wu%NULL%1,              Tianzhu%Zhang%NULL%1,              Yaoyao%Zhao%NULL%1,              Wei%Ren%ren33107@163.com%1,              Jianbo%Xia%xjb915@126.com%2,              Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,               Rana%Magdi%NULL%1,               Nader%Hindi%NULL%1,               Mohamed%Elshebiny%NULL%1,               Nourhan%Farrag%NULL%1,               Shahd%Mahdy%NULL%1,               Mohamed%Sabbour%NULL%1,               Sara%Gebril%NULL%1,               Mohamed%Nasser%NULL%1,               Menna%Kamel%NULL%1,               Abdelrahman%Amir%NULL%1,               Moataz%Maher Emara%NULL%1,               Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,               Lefei%Han%NULL%0,               Min%Peng%2658706528@qq.com%0,               Yuxia%Lv%NULL%0,               Yin%Ouyang%NULL%0,               Kui%Liu%NULL%0,               Linli%Yue%NULL%0,               Qiannan%Li%NULL%0,               Guoqiang%Sun%NULL%0,               Lin%Chen%NULL%0,               Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,               M. M.%Gil%NULL%1,               Z.%Rong%NULL%2,               Z.%Rong%NULL%0,               Y.%Zhang%NULL%1,               H.%Yang%liona.poon@cuhk.edu.hk%1,               L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,               Wenzhong%Yang%NULL%1,               Xiaoxue%Wu%NULL%1,               Tianzhu%Zhang%NULL%1,               Yaoyao%Zhao%NULL%1,               Wei%Ren%ren33107@163.com%1,               Jianbo%Xia%xjb915@126.com%2,               Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -695,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -724,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -753,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -782,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="101">
   <si>
     <t>Doi</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,               Wenzhong%Yang%NULL%1,               Xiaoxue%Wu%NULL%1,               Tianzhu%Zhang%NULL%1,               Yaoyao%Zhao%NULL%1,               Wei%Ren%ren33107@163.com%1,               Jianbo%Xia%xjb915@126.com%2,               Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                Rana%Magdi%NULL%1,                Nader%Hindi%NULL%1,                Mohamed%Elshebiny%NULL%1,                Nourhan%Farrag%NULL%1,                Shahd%Mahdy%NULL%1,                Mohamed%Sabbour%NULL%1,                Sara%Gebril%NULL%1,                Mohamed%Nasser%NULL%1,                Menna%Kamel%NULL%1,                Abdelrahman%Amir%NULL%1,                Moataz%Maher Emara%NULL%1,                Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                Lefei%Han%NULL%0,                Min%Peng%2658706528@qq.com%0,                Yuxia%Lv%NULL%0,                Yin%Ouyang%NULL%0,                Kui%Liu%NULL%0,                Linli%Yue%NULL%0,                Qiannan%Li%NULL%0,                Guoqiang%Sun%NULL%0,                Lin%Chen%NULL%0,                Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                M. M.%Gil%NULL%1,                Z.%Rong%NULL%2,                Z.%Rong%NULL%0,                Y.%Zhang%NULL%1,                H.%Yang%liona.poon@cuhk.edu.hk%1,                L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                Wenzhong%Yang%NULL%1,                Xiaoxue%Wu%NULL%1,                Tianzhu%Zhang%NULL%1,                Yaoyao%Zhao%NULL%1,                Wei%Ren%ren33107@163.com%1,                Jianbo%Xia%xjb915@126.com%2,                Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -707,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -736,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -765,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -794,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                Wenzhong%Yang%NULL%1,                Xiaoxue%Wu%NULL%1,                Tianzhu%Zhang%NULL%1,                Yaoyao%Zhao%NULL%1,                Wei%Ren%ren33107@163.com%1,                Jianbo%Xia%xjb915@126.com%2,                Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                 Rana%Magdi%NULL%1,                 Nader%Hindi%NULL%1,                 Mohamed%Elshebiny%NULL%1,                 Nourhan%Farrag%NULL%1,                 Shahd%Mahdy%NULL%1,                 Mohamed%Sabbour%NULL%1,                 Sara%Gebril%NULL%1,                 Mohamed%Nasser%NULL%1,                 Menna%Kamel%NULL%1,                 Abdelrahman%Amir%NULL%1,                 Moataz%Maher Emara%NULL%1,                 Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                 Lefei%Han%NULL%0,                 Min%Peng%2658706528@qq.com%0,                 Yuxia%Lv%NULL%0,                 Yin%Ouyang%NULL%0,                 Kui%Liu%NULL%0,                 Linli%Yue%NULL%0,                 Qiannan%Li%NULL%0,                 Guoqiang%Sun%NULL%0,                 Lin%Chen%NULL%0,                 Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                 M. M.%Gil%NULL%1,                 Z.%Rong%NULL%2,                 Z.%Rong%NULL%0,                 Y.%Zhang%NULL%1,                 H.%Yang%liona.poon@cuhk.edu.hk%1,                 L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                 Wenzhong%Yang%NULL%1,                 Xiaoxue%Wu%NULL%1,                 Tianzhu%Zhang%NULL%1,                 Yaoyao%Zhao%NULL%1,                 Wei%Ren%ren33107@163.com%1,                 Jianbo%Xia%xjb915@126.com%2,                 Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                  Rana%Magdi%NULL%1,                  Nader%Hindi%NULL%1,                  Mohamed%Elshebiny%NULL%1,                  Nourhan%Farrag%NULL%1,                  Shahd%Mahdy%NULL%1,                  Mohamed%Sabbour%NULL%1,                  Sara%Gebril%NULL%1,                  Mohamed%Nasser%NULL%1,                  Menna%Kamel%NULL%1,                  Abdelrahman%Amir%NULL%1,                  Moataz%Maher Emara%NULL%1,                  Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                  Lefei%Han%NULL%0,                  Min%Peng%2658706528@qq.com%0,                  Yuxia%Lv%NULL%0,                  Yin%Ouyang%NULL%0,                  Kui%Liu%NULL%0,                  Linli%Yue%NULL%0,                  Qiannan%Li%NULL%0,                  Guoqiang%Sun%NULL%0,                  Lin%Chen%NULL%0,                  Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                  M. M.%Gil%NULL%1,                  Z.%Rong%NULL%2,                  Z.%Rong%NULL%0,                  Y.%Zhang%NULL%1,                  H.%Yang%liona.poon@cuhk.edu.hk%1,                  L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                  Wenzhong%Yang%NULL%1,                  Xiaoxue%Wu%NULL%1,                  Tianzhu%Zhang%NULL%1,                  Yaoyao%Zhao%NULL%1,                  Wei%Ren%ren33107@163.com%1,                  Jianbo%Xia%xjb915@126.com%2,                  Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -719,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -748,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -777,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -806,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="113">
   <si>
     <t>Doi</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                  Wenzhong%Yang%NULL%1,                  Xiaoxue%Wu%NULL%1,                  Tianzhu%Zhang%NULL%1,                  Yaoyao%Zhao%NULL%1,                  Wei%Ren%ren33107@163.com%1,                  Jianbo%Xia%xjb915@126.com%2,                  Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                   Rana%Magdi%NULL%1,                   Nader%Hindi%NULL%1,                   Mohamed%Elshebiny%NULL%1,                   Nourhan%Farrag%NULL%1,                   Shahd%Mahdy%NULL%1,                   Mohamed%Sabbour%NULL%1,                   Sara%Gebril%NULL%1,                   Mohamed%Nasser%NULL%1,                   Menna%Kamel%NULL%1,                   Abdelrahman%Amir%NULL%1,                   Moataz%Maher Emara%NULL%1,                   Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                   Lefei%Han%NULL%0,                   Min%Peng%2658706528@qq.com%0,                   Yuxia%Lv%NULL%0,                   Yin%Ouyang%NULL%0,                   Kui%Liu%NULL%0,                   Linli%Yue%NULL%0,                   Qiannan%Li%NULL%0,                   Guoqiang%Sun%NULL%0,                   Lin%Chen%NULL%0,                   Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                   M. M.%Gil%NULL%1,                   Z.%Rong%NULL%2,                   Z.%Rong%NULL%0,                   Y.%Zhang%NULL%1,                   H.%Yang%liona.poon@cuhk.edu.hk%1,                   L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                   Wenzhong%Yang%NULL%1,                   Xiaoxue%Wu%NULL%1,                   Tianzhu%Zhang%NULL%1,                   Yaoyao%Zhao%NULL%1,                   Wei%Ren%ren33107@163.com%1,                   Jianbo%Xia%xjb915@126.com%2,                   Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -743,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -772,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -801,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -830,7 +842,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                   Wenzhong%Yang%NULL%1,                   Xiaoxue%Wu%NULL%1,                   Tianzhu%Zhang%NULL%1,                   Yaoyao%Zhao%NULL%1,                   Wei%Ren%ren33107@163.com%1,                   Jianbo%Xia%xjb915@126.com%2,                   Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                    Rana%Magdi%NULL%1,                    Nader%Hindi%NULL%1,                    Mohamed%Elshebiny%NULL%1,                    Nourhan%Farrag%NULL%1,                    Shahd%Mahdy%NULL%1,                    Mohamed%Sabbour%NULL%1,                    Sara%Gebril%NULL%1,                    Mohamed%Nasser%NULL%1,                    Menna%Kamel%NULL%1,                    Abdelrahman%Amir%NULL%1,                    Moataz%Maher Emara%NULL%1,                    Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                    Lefei%Han%NULL%0,                    Min%Peng%2658706528@qq.com%0,                    Yuxia%Lv%NULL%0,                    Yin%Ouyang%NULL%0,                    Kui%Liu%NULL%0,                    Linli%Yue%NULL%0,                    Qiannan%Li%NULL%0,                    Guoqiang%Sun%NULL%0,                    Lin%Chen%NULL%0,                    Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                    M. M.%Gil%NULL%1,                    Z.%Rong%NULL%2,                    Z.%Rong%NULL%0,                    Y.%Zhang%NULL%1,                    H.%Yang%liona.poon@cuhk.edu.hk%1,                    L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                    Wenzhong%Yang%NULL%1,                    Xiaoxue%Wu%NULL%1,                    Tianzhu%Zhang%NULL%1,                    Yaoyao%Zhao%NULL%1,                    Wei%Ren%ren33107@163.com%1,                    Jianbo%Xia%xjb915@126.com%2,                    Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -755,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -767,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -784,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -796,7 +814,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -813,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -825,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -842,7 +860,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -854,7 +872,7 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="123">
   <si>
     <t>Doi</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                     Rana%Magdi%NULL%1,                     Nader%Hindi%NULL%1,                     Mohamed%Elshebiny%NULL%1,                     Nourhan%Farrag%NULL%1,                     Shahd%Mahdy%NULL%1,                     Mohamed%Sabbour%NULL%1,                     Sara%Gebril%NULL%1,                     Mohamed%Nasser%NULL%1,                     Menna%Kamel%NULL%1,                     Abdelrahman%Amir%NULL%1,                     Moataz%Maher Emara%NULL%1,                     Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                     Lefei%Han%NULL%0,                     Min%Peng%2658706528@qq.com%0,                     Yuxia%Lv%NULL%0,                     Yin%Ouyang%NULL%0,                     Kui%Liu%NULL%0,                     Linli%Yue%NULL%0,                     Qiannan%Li%NULL%0,                     Guoqiang%Sun%NULL%0,                     Lin%Chen%NULL%0,                     Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                     M. M.%Gil%NULL%1,                     Z.%Rong%NULL%2,                     Z.%Rong%NULL%0,                     Y.%Zhang%NULL%1,                     H.%Yang%liona.poon@cuhk.edu.hk%1,                     L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                     Wenzhong%Yang%NULL%1,                     Xiaoxue%Wu%NULL%1,                     Tianzhu%Zhang%NULL%1,                     Yaoyao%Zhao%NULL%1,                     Wei%Ren%ren33107@163.com%1,                     Jianbo%Xia%xjb915@126.com%2,                     Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -773,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -802,7 +814,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -831,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -860,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -450,6 +450,72 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                     Wenzhong%Yang%NULL%1,                     Xiaoxue%Wu%NULL%1,                     Tianzhu%Zhang%NULL%1,                     Yaoyao%Zhao%NULL%1,                     Wei%Ren%ren33107@163.com%1,                     Jianbo%Xia%xjb915@126.com%2,                     Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                      Rana%Magdi%NULL%1,                      Nader%Hindi%NULL%1,                      Mohamed%Elshebiny%NULL%1,                      Nourhan%Farrag%NULL%1,                      Shahd%Mahdy%NULL%1,                      Mohamed%Sabbour%NULL%1,                      Sara%Gebril%NULL%1,                      Mohamed%Nasser%NULL%1,                      Menna%Kamel%NULL%1,                      Abdelrahman%Amir%NULL%1,                      Moataz%Maher Emara%NULL%1,                      Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                      Lefei%Han%NULL%0,                      Min%Peng%2658706528@qq.com%0,                      Yuxia%Lv%NULL%0,                      Yin%Ouyang%NULL%0,                      Kui%Liu%NULL%0,                      Linli%Yue%NULL%0,                      Qiannan%Li%NULL%0,                      Guoqiang%Sun%NULL%0,                      Lin%Chen%NULL%0,                      Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                      M. M.%Gil%NULL%1,                      Z.%Rong%NULL%2,                      Z.%Rong%NULL%0,                      Y.%Zhang%NULL%1,                      H.%Yang%liona.poon@cuhk.edu.hk%1,                      L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                      Wenzhong%Yang%NULL%1,                      Xiaoxue%Wu%NULL%1,                      Tianzhu%Zhang%NULL%1,                      Yaoyao%Zhao%NULL%1,                      Wei%Ren%ren33107@163.com%1,                      Jianbo%Xia%xjb915@126.com%2,                      Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                       Rana%Magdi%NULL%1,                       Nader%Hindi%NULL%1,                       Mohamed%Elshebiny%NULL%1,                       Nourhan%Farrag%NULL%1,                       Shahd%Mahdy%NULL%1,                       Mohamed%Sabbour%NULL%1,                       Sara%Gebril%NULL%1,                       Mohamed%Nasser%NULL%1,                       Menna%Kamel%NULL%1,                       Abdelrahman%Amir%NULL%1,                       Moataz%Maher Emara%NULL%1,                       Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                       Lefei%Han%NULL%0,                       Min%Peng%2658706528@qq.com%0,                       Yuxia%Lv%NULL%0,                       Yin%Ouyang%NULL%0,                       Kui%Liu%NULL%0,                       Linli%Yue%NULL%0,                       Qiannan%Li%NULL%0,                       Guoqiang%Sun%NULL%0,                       Lin%Chen%NULL%0,                       Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                       M. M.%Gil%NULL%1,                       Z.%Rong%NULL%2,                       Z.%Rong%NULL%0,                       Y.%Zhang%NULL%1,                       H.%Yang%liona.poon@cuhk.edu.hk%1,                       L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                       Wenzhong%Yang%NULL%1,                       Xiaoxue%Wu%NULL%1,                       Tianzhu%Zhang%NULL%1,                       Yaoyao%Zhao%NULL%1,                       Wei%Ren%ren33107@163.com%1,                       Jianbo%Xia%xjb915@126.com%2,                       Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                        Rana%Magdi%NULL%1,                        Nader%Hindi%NULL%1,                        Mohamed%Elshebiny%NULL%1,                        Nourhan%Farrag%NULL%1,                        Shahd%Mahdy%NULL%1,                        Mohamed%Sabbour%NULL%1,                        Sara%Gebril%NULL%1,                        Mohamed%Nasser%NULL%1,                        Menna%Kamel%NULL%1,                        Abdelrahman%Amir%NULL%1,                        Moataz%Maher Emara%NULL%1,                        Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                        Lefei%Han%NULL%0,                        Min%Peng%2658706528@qq.com%0,                        Yuxia%Lv%NULL%0,                        Yin%Ouyang%NULL%0,                        Kui%Liu%NULL%0,                        Linli%Yue%NULL%0,                        Qiannan%Li%NULL%0,                        Guoqiang%Sun%NULL%0,                        Lin%Chen%NULL%0,                        Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                        M. M.%Gil%NULL%1,                        Z.%Rong%NULL%2,                        Z.%Rong%NULL%0,                        Y.%Zhang%NULL%1,                        H.%Yang%liona.poon@cuhk.edu.hk%1,                        L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                        Wenzhong%Yang%NULL%1,                        Xiaoxue%Wu%NULL%1,                        Tianzhu%Zhang%NULL%1,                        Yaoyao%Zhao%NULL%1,                        Wei%Ren%ren33107@163.com%1,                        Jianbo%Xia%xjb915@126.com%2,                        Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                         Rana%Magdi%NULL%1,                         Nader%Hindi%NULL%1,                         Mohamed%Elshebiny%NULL%1,                         Nourhan%Farrag%NULL%1,                         Shahd%Mahdy%NULL%1,                         Mohamed%Sabbour%NULL%1,                         Sara%Gebril%NULL%1,                         Mohamed%Nasser%NULL%1,                         Menna%Kamel%NULL%1,                         Abdelrahman%Amir%NULL%1,                         Moataz%Maher Emara%NULL%1,                         Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                         Lefei%Han%NULL%0,                         Min%Peng%2658706528@qq.com%0,                         Yuxia%Lv%NULL%0,                         Yin%Ouyang%NULL%0,                         Kui%Liu%NULL%0,                         Linli%Yue%NULL%0,                         Qiannan%Li%NULL%0,                         Guoqiang%Sun%NULL%0,                         Lin%Chen%NULL%0,                         Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                         M. M.%Gil%NULL%1,                         Z.%Rong%NULL%2,                         Z.%Rong%NULL%0,                         Y.%Zhang%NULL%1,                         H.%Yang%liona.poon@cuhk.edu.hk%1,                         L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                         Wenzhong%Yang%NULL%1,                         Xiaoxue%Wu%NULL%1,                         Tianzhu%Zhang%NULL%1,                         Yaoyao%Zhao%NULL%1,                         Wei%Ren%ren33107@163.com%1,                         Jianbo%Xia%xjb915@126.com%2,                         Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                          Rana%Magdi%NULL%1,                          Nader%Hindi%NULL%1,                          Mohamed%Elshebiny%NULL%1,                          Nourhan%Farrag%NULL%1,                          Shahd%Mahdy%NULL%1,                          Mohamed%Sabbour%NULL%1,                          Sara%Gebril%NULL%1,                          Mohamed%Nasser%NULL%1,                          Menna%Kamel%NULL%1,                          Abdelrahman%Amir%NULL%1,                          Moataz%Maher Emara%NULL%1,                          Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                          Lefei%Han%NULL%0,                          Min%Peng%2658706528@qq.com%0,                          Yuxia%Lv%NULL%0,                          Yin%Ouyang%NULL%0,                          Kui%Liu%NULL%0,                          Linli%Yue%NULL%0,                          Qiannan%Li%NULL%0,                          Guoqiang%Sun%NULL%0,                          Lin%Chen%NULL%0,                          Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                          M. M.%Gil%NULL%1,                          Z.%Rong%NULL%2,                          Z.%Rong%NULL%0,                          Y.%Zhang%NULL%1,                          H.%Yang%liona.poon@cuhk.edu.hk%1,                          L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                          Wenzhong%Yang%NULL%1,                          Xiaoxue%Wu%NULL%1,                          Tianzhu%Zhang%NULL%1,                          Yaoyao%Zhao%NULL%1,                          Wei%Ren%ren33107@163.com%1,                          Jianbo%Xia%xjb915@126.com%2,                          Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -770,6 +836,9 @@
       <c r="I1" t="s">
         <v>50</v>
       </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -785,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -798,6 +867,9 @@
       </c>
       <c r="I2" t="s">
         <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -827,6 +899,9 @@
       </c>
       <c r="I3" t="s">
         <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +918,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -856,6 +931,9 @@
       </c>
       <c r="I4" t="s">
         <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -872,7 +950,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -885,6 +963,9 @@
       </c>
       <c r="I5" t="s">
         <v>118</v>
+      </c>
+      <c r="J5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/80.xlsx
+++ b/Covid_19_Dataset_and_References/References/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                          Wenzhong%Yang%NULL%1,                          Xiaoxue%Wu%NULL%1,                          Tianzhu%Zhang%NULL%1,                          Yaoyao%Zhao%NULL%1,                          Wei%Ren%ren33107@163.com%1,                          Jianbo%Xia%xjb915@126.com%2,                          Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                           Rana%Magdi%NULL%1,                           Nader%Hindi%NULL%1,                           Mohamed%Elshebiny%NULL%1,                           Nourhan%Farrag%NULL%1,                           Shahd%Mahdy%NULL%1,                           Mohamed%Sabbour%NULL%1,                           Sara%Gebril%NULL%1,                           Mohamed%Nasser%NULL%1,                           Menna%Kamel%NULL%1,                           Abdelrahman%Amir%NULL%1,                           Moataz%Maher Emara%NULL%1,                           Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                           Lefei%Han%NULL%0,                           Min%Peng%2658706528@qq.com%0,                           Yuxia%Lv%NULL%0,                           Yin%Ouyang%NULL%0,                           Kui%Liu%NULL%0,                           Linli%Yue%NULL%0,                           Qiannan%Li%NULL%0,                           Guoqiang%Sun%NULL%0,                           Lin%Chen%NULL%0,                           Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                           M. M.%Gil%NULL%1,                           Z.%Rong%NULL%2,                           Z.%Rong%NULL%0,                           Y.%Zhang%NULL%1,                           H.%Yang%liona.poon@cuhk.edu.hk%1,                           L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                           Wenzhong%Yang%NULL%1,                           Xiaoxue%Wu%NULL%1,                           Tianzhu%Zhang%NULL%1,                           Yaoyao%Zhao%NULL%1,                           Wei%Ren%ren33107@163.com%1,                           Jianbo%Xia%xjb915@126.com%2,                           Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                            Rana%Magdi%NULL%1,                            Nader%Hindi%NULL%1,                            Mohamed%Elshebiny%NULL%1,                            Nourhan%Farrag%NULL%1,                            Shahd%Mahdy%NULL%1,                            Mohamed%Sabbour%NULL%1,                            Sara%Gebril%NULL%1,                            Mohamed%Nasser%NULL%1,                            Menna%Kamel%NULL%1,                            Abdelrahman%Amir%NULL%1,                            Moataz%Maher Emara%NULL%1,                            Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                            Lefei%Han%NULL%0,                            Min%Peng%2658706528@qq.com%0,                            Yuxia%Lv%NULL%0,                            Yin%Ouyang%NULL%0,                            Kui%Liu%NULL%0,                            Linli%Yue%NULL%0,                            Qiannan%Li%NULL%0,                            Guoqiang%Sun%NULL%0,                            Lin%Chen%NULL%0,                            Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                            M. M.%Gil%NULL%1,                            Z.%Rong%NULL%2,                            Z.%Rong%NULL%0,                            Y.%Zhang%NULL%1,                            H.%Yang%liona.poon@cuhk.edu.hk%1,                            L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                            Wenzhong%Yang%NULL%1,                            Xiaoxue%Wu%NULL%1,                            Tianzhu%Zhang%NULL%1,                            Yaoyao%Zhao%NULL%1,                            Wei%Ren%ren33107@163.com%1,                            Jianbo%Xia%xjb915@126.com%2,                            Jianbo%Xia%xjb915@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -854,7 +878,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -886,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -918,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -950,7 +974,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
